--- a/docs/StructureDefinition-VAInpatientUDMedicationRequestRenewal.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequestRenewal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="267">
   <si>
     <t>Path</t>
   </si>
@@ -323,501 +323,498 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>LAST RENEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the activity was recorded / updated</t>
+  </si>
+  <si>
+    <t>This is the date/time the order was renewed.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>LAST RENEW @LAST RENEW 55.6114-.01</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Actor involved</t>
+  </si>
+  <si>
+    <t>An actor taking a role in an activity  for which it can be assigned some degree of responsibility for the activity taking place.</t>
+  </si>
+  <si>
+    <t>Several agents may be associated (i.e. has some responsibility for an activity) with an activity and vice-versa.</t>
+  </si>
+  <si>
+    <t>An agent can be a person, an organization, software, device, or other entities that may be ascribed responsibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>./participation[isNormalParticipation()]  OR  ./outboundRelationship[isNormalActRelationship() and typeCode='DRIV']</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent</t>
+  </si>
+  <si>
+    <t>Provenance.agent.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.agent.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>What the agents role was</t>
+  </si>
+  <si>
+    <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
+  </si>
+  <si>
+    <t>For example: author, performer, enterer, attester, doctor, nurse, clerk, etc.</t>
+  </si>
+  <si>
+    <t>The role that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+  </si>
+  <si>
+    <t>.role and/or .typecode</t>
+  </si>
+  <si>
+    <t>Agent.Attribution</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.role</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>whoReference</t>
+  </si>
+  <si>
+    <t>RENEWED BY</t>
+  </si>
+  <si>
+    <t>This is the person who renewed the order.</t>
+  </si>
+  <si>
+    <t>LAST RENEW @RENEWED BY 55.6114-1</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf[x]</t>
+  </si>
+  <si>
+    <t>uri
+Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
+  </si>
+  <si>
+    <t>Who the agent is representing</t>
+  </si>
+  <si>
+    <t>The individual, device, or organization for whom the change was made.</t>
+  </si>
+  <si>
+    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
+  </si>
+  <si>
+    <t>Provenance.agent.relatedAgentType</t>
+  </si>
+  <si>
+    <t>Type of relationship between agents</t>
+  </si>
+  <si>
+    <t>The type of relationship between agents.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Type of relationship between two provenance agents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-RoleLinkType</t>
+  </si>
+  <si>
+    <t>.typeCode</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Provenance.entity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity.</t>
+  </si>
+  <si>
+    <t>Multiple userIds may be associated with the same Practitioner or other individual across various appearances, each with distinct privileges.</t>
+  </si>
+  <si>
+    <t>./subjectOf</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity</t>
+  </si>
+  <si>
+    <t>Provenance.entity.id</t>
+  </si>
+  <si>
+    <t>Provenance.entity.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role</t>
+  </si>
+  <si>
+    <t>derivation | revision | quotation | source | removal</t>
+  </si>
+  <si>
+    <t>How the entity was used during the activity.</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How an entity was used in an activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
+  </si>
+  <si>
+    <t>./typeCode</t>
+  </si>
+  <si>
+    <t>Entity.role</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.lifecycle</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x]</t>
+  </si>
+  <si>
+    <t>uri
+Reference(Resource)Identifier</t>
+  </si>
+  <si>
+    <t>Identity of entity</t>
+  </si>
+  <si>
+    <t>Identity of the  Entity used. May be a logical or physical uri and maybe absolute or relative.</t>
+  </si>
+  <si>
+    <t>Identity may be a reference to a resource or to something else, depending on the type.</t>
+  </si>
+  <si>
+    <t>./text/reference</t>
+  </si>
+  <si>
+    <t>Entity.Identity</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].id</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>LAST RENEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the activity was recorded / updated</t>
-  </si>
-  <si>
-    <t>This is the date/time the order was renewed.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>LAST RENEW @LAST RENEW 55.6114-.01</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Actor involved</t>
-  </si>
-  <si>
-    <t>An actor taking a role in an activity  for which it can be assigned some degree of responsibility for the activity taking place.</t>
-  </si>
-  <si>
-    <t>Several agents may be associated (i.e. has some responsibility for an activity) with an activity and vice-versa.</t>
-  </si>
-  <si>
-    <t>An agent can be a person, an organization, software, device, or other entities that may be ascribed responsibility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>./participation[isNormalParticipation()]  OR  ./outboundRelationship[isNormalActRelationship() and typeCode='DRIV']</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent</t>
-  </si>
-  <si>
-    <t>Provenance.agent.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.agent.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>What the agents role was</t>
-  </si>
-  <si>
-    <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
-  </si>
-  <si>
-    <t>For example: author, performer, enterer, attester, doctor, nurse, clerk, etc.</t>
-  </si>
-  <si>
-    <t>The role that a provenance agent played with respect to the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
-  </si>
-  <si>
-    <t>.role and/or .typecode</t>
-  </si>
-  <si>
-    <t>Agent.Attribution</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.role</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Who participated</t>
-  </si>
-  <si>
-    <t>The individual, device or organization that participated in the event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>whoReference</t>
-  </si>
-  <si>
-    <t>RENEWED BY</t>
-  </si>
-  <si>
-    <t>This is the person who renewed the order.</t>
-  </si>
-  <si>
-    <t>LAST RENEW @RENEWED BY 55.6114-1</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf[x]</t>
-  </si>
-  <si>
-    <t>uri
-Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
-  </si>
-  <si>
-    <t>Who the agent is representing</t>
-  </si>
-  <si>
-    <t>The individual, device, or organization for whom the change was made.</t>
-  </si>
-  <si>
-    <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
-  </si>
-  <si>
-    <t>Provenance.agent.relatedAgentType</t>
-  </si>
-  <si>
-    <t>Type of relationship between agents</t>
-  </si>
-  <si>
-    <t>The type of relationship between agents.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of relationship between two provenance agents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-RoleLinkType</t>
-  </si>
-  <si>
-    <t>.typeCode</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Provenance.entity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity</t>
-  </si>
-  <si>
-    <t>An entity used in this activity.</t>
-  </si>
-  <si>
-    <t>Multiple userIds may be associated with the same Practitioner or other individual across various appearances, each with distinct privileges.</t>
-  </si>
-  <si>
-    <t>./subjectOf</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity</t>
-  </si>
-  <si>
-    <t>Provenance.entity.id</t>
-  </si>
-  <si>
-    <t>Provenance.entity.extension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.entity.role</t>
-  </si>
-  <si>
-    <t>derivation | revision | quotation | source | removal</t>
-  </si>
-  <si>
-    <t>How the entity was used during the activity.</t>
-  </si>
-  <si>
-    <t>revision</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How an entity was used in an activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-entity-role</t>
-  </si>
-  <si>
-    <t>./typeCode</t>
-  </si>
-  <si>
-    <t>Entity.role</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.lifecycle</t>
-  </si>
-  <si>
-    <t>Provenance.entity.what[x]</t>
-  </si>
-  <si>
-    <t>uri
-Reference(Resource)Identifier</t>
-  </si>
-  <si>
-    <t>Identity of entity</t>
-  </si>
-  <si>
-    <t>Identity of the  Entity used. May be a logical or physical uri and maybe absolute or relative.</t>
-  </si>
-  <si>
-    <t>Identity may be a reference to a resource or to something else, depending on the type.</t>
-  </si>
-  <si>
-    <t>./text/reference</t>
-  </si>
-  <si>
-    <t>Entity.Identity</t>
-  </si>
-  <si>
-    <t>Provenance.entity.what[x].id</t>
-  </si>
-  <si>
-    <t>Provenance.entity.what[x].extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Provenance.entity.agent</t>
@@ -1972,7 +1969,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1991,15 +1988,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2036,14 +2035,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2064,7 +2065,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2082,7 +2083,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2101,16 +2102,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2160,7 +2161,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2192,7 +2193,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2215,16 +2216,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2274,7 +2275,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2292,21 +2293,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2329,16 +2330,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2388,7 +2389,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2406,13 +2407,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2420,14 +2421,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2445,16 +2446,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2504,7 +2505,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2519,24 +2520,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2562,13 +2563,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2618,7 +2619,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2636,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2645,12 +2646,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2673,13 +2674,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2730,7 +2731,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2748,21 +2749,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2785,13 +2786,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2821,10 +2822,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -2842,7 +2843,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2860,21 +2861,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2897,13 +2898,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2933,10 +2934,10 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -2954,7 +2955,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2972,21 +2973,21 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3009,19 +3010,19 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3070,7 +3071,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
@@ -3082,27 +3083,27 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3125,13 +3126,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3182,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3200,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3214,11 +3215,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3237,16 +3238,16 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3296,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3314,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3328,11 +3329,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3351,16 +3352,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3410,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3442,7 +3443,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3465,16 +3466,16 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3503,10 +3504,10 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -3524,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3542,21 +3543,21 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3579,13 +3580,13 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3624,17 +3625,17 @@
         <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>53</v>
@@ -3652,13 +3653,13 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -3666,16 +3667,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>53</v>
@@ -3693,13 +3694,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3750,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>53</v>
@@ -3765,16 +3766,16 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -3782,7 +3783,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3805,13 +3806,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3862,7 +3863,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3880,7 +3881,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -3894,7 +3895,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3917,13 +3918,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3950,13 +3951,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -3974,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3992,10 +3993,10 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4006,7 +4007,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4029,16 +4030,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4088,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4100,27 +4101,27 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4143,13 +4144,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4200,7 +4201,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4218,7 +4219,7 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4232,11 +4233,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4255,16 +4256,16 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4314,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4332,7 +4333,7 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4346,11 +4347,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4369,16 +4370,16 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4428,7 +4429,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4460,7 +4461,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4486,10 +4487,10 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4498,32 +4499,32 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="R31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4558,21 +4559,21 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4595,16 +4596,16 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4654,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>53</v>
@@ -4672,21 +4673,21 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4709,13 +4710,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4766,7 +4767,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4784,7 +4785,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -4798,11 +4799,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4821,16 +4822,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4868,16 +4869,16 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
@@ -4894,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -4908,7 +4909,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4934,13 +4935,13 @@
         <v>44</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4990,7 +4991,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5008,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5022,7 +5023,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5045,13 +5046,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5102,7 +5103,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5120,7 +5121,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAInpatientUDMedicationRequestRenewal.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequestRenewal.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="313">
   <si>
     <t>Path</t>
   </si>
@@ -782,8 +782,8 @@
     <t>Provenance.entity.what[x]</t>
   </si>
   <si>
-    <t>uri
-Reference(Resource)Identifier</t>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>Identity of entity</t>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>Entity.Identity</t>
+  </si>
+  <si>
+    <t>whatIdentifier</t>
   </si>
   <si>
     <t>Provenance.entity.what[x].id</t>
@@ -815,6 +818,143 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].value</t>
+  </si>
+  <si>
+    <t>PREVIOUS ORDERS FILE ENTRY</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>When an order is being renewed, this is the pointer value of the corresponding entry in the ORDERS file (100), prior to the renewal.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>LAST RENEW @PREVIOUS ORDERS FILE ENTRY 55.6114-4</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>Provenance.entity.agent</t>
@@ -994,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1006,7 +1146,7 @@
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="13.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="29.61328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1026,7 +1166,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.4609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.2421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -1038,7 +1178,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.94140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="219.3046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="35.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.79296875" customWidth="true" bestFit="true"/>
@@ -4643,16 +4783,14 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>245</v>
@@ -4687,15 +4825,17 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
@@ -4707,18 +4847,20 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4767,10 +4909,10 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>53</v>
@@ -4785,16 +4927,16 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -4803,14 +4945,14 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -4822,17 +4964,15 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -4869,22 +5009,26 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AE34" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
@@ -4909,11 +5053,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4932,16 +5076,16 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4979,19 +5123,19 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5009,7 +5153,7 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5023,7 +5167,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5034,28 +5178,32 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5079,13 +5227,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5103,13 +5251,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5133,8 +5281,806 @@
         <v>44</v>
       </c>
     </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN36">
+  <autoFilter ref="A1:AN43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5144,7 +6090,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
